--- a/app/vendors/consolidated_report/templates/consolidated_report_revision-3.xlsx
+++ b/app/vendors/consolidated_report/templates/consolidated_report_revision-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4605" windowWidth="19440" windowHeight="10800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="4605" windowWidth="19440" windowHeight="10800" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1346,6 +1346,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2175,11 +2176,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="83788160"/>
-        <c:axId val="83789696"/>
+        <c:axId val="32247168"/>
+        <c:axId val="32253056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83788160"/>
+        <c:axId val="32247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83789696"/>
+        <c:crossAx val="32253056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83789696"/>
+        <c:axId val="32253056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2244,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83788160"/>
+        <c:crossAx val="32247168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2354,6 +2355,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2541,12 +2543,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="83811712"/>
-        <c:axId val="84423808"/>
+        <c:axId val="32459008"/>
+        <c:axId val="32460800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83811712"/>
+        <c:axId val="32459008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84423808"/>
+        <c:crossAx val="32460800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84423808"/>
+        <c:axId val="32460800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2612,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83811712"/>
+        <c:crossAx val="32459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2695,6 +2697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2836,12 +2839,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="84448384"/>
-        <c:axId val="84449920"/>
+        <c:axId val="32477184"/>
+        <c:axId val="32478720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84448384"/>
+        <c:axId val="32477184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84449920"/>
+        <c:crossAx val="32478720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2877,7 +2880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84449920"/>
+        <c:axId val="32478720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,7 +2908,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84448384"/>
+        <c:crossAx val="32477184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2982,6 +2985,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3098,11 +3102,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="84482688"/>
-        <c:axId val="84496768"/>
+        <c:axId val="32495104"/>
+        <c:axId val="32496640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84482688"/>
+        <c:axId val="32495104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84496768"/>
+        <c:crossAx val="32496640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84496768"/>
+        <c:axId val="32496640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84482688"/>
+        <c:crossAx val="32495104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3373,15 +3377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4774,8 +4778,8 @@
   </sheetPr>
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8930,7 +8934,7 @@
   </sheetPr>
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" sqref="B17:M17"/>
     </sheetView>
   </sheetViews>
